--- a/data/债券基金收益率分解.xlsx
+++ b/data/债券基金收益率分解.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\FOF\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -90,15 +85,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -106,22 +98,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,45 +135,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,10 +227,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,7 +261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,231 +436,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9" style="5"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.29892919065965939</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.27104051296661258</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.20644682295483141</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.12437038149575511</v>
-      </c>
-      <c r="G2" s="3">
-        <v>9.9213091923141622E-2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3.0572599374420442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>0.3630381216970752</v>
+      </c>
+      <c r="D2">
+        <v>0.3250906024588441</v>
+      </c>
+      <c r="E2">
+        <v>0.2119233109669215</v>
+      </c>
+      <c r="F2">
+        <v>0.09994796487715929</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.279081298896867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.47200713070223788</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.32009305467201898</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7.8062556418956319E-18</v>
-      </c>
-      <c r="F3" s="3">
-        <v>-2.424547108220709E-17</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.2078998146257432</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2.5393881917011019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C3">
+        <v>0.46762160659752</v>
+      </c>
+      <c r="D3">
+        <v>0.3635262646209915</v>
+      </c>
+      <c r="E3">
+        <v>0.1241059943399089</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.04474613444157977</v>
+      </c>
+      <c r="H3">
+        <v>1.815256385433017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.41114352159684581</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.35720523803013948</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.23165124037301471</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C4">
+        <v>0.344936428705476</v>
+      </c>
+      <c r="D4">
+        <v>0.3196486151951595</v>
+      </c>
+      <c r="E4">
+        <v>0.2244664978144043</v>
+      </c>
+      <c r="F4">
+        <v>0.1109484582849601</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>1.8973326260259511E-17</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.8465871983507609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>2.375322185710435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.31459299052048639</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.29417762746944592</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.2004506686482059</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.1111861222951067</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7.9592591066754856E-2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2.8513118870966379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>0.3320966551502804</v>
+      </c>
+      <c r="D5">
+        <v>0.306937908317285</v>
+      </c>
+      <c r="E5">
+        <v>0.1936706219514911</v>
+      </c>
+      <c r="F5">
+        <v>0.09159368235430722</v>
+      </c>
+      <c r="G5">
+        <v>0.0757011322266362</v>
+      </c>
+      <c r="H5">
+        <v>2.709777783954608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.37912507713819771</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.33893811428257009</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.28193680857923209</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.778769189234031E-19</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1.995186001451168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>0.3818096331389775</v>
+      </c>
+      <c r="D6">
+        <v>0.3364583785203511</v>
+      </c>
+      <c r="E6">
+        <v>0.2817319883406715</v>
+      </c>
+      <c r="F6">
+        <v>-2.775557561562891e-17</v>
+      </c>
+      <c r="G6">
+        <v>-1.461716286747274e-16</v>
+      </c>
+      <c r="H6">
+        <v>1.990749526972876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
-        <v>-5.3251351780734338E-17</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.4307923738318489E-17</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-1.265848991851806E-16</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.775557561562891E-17</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>8.0000000000000018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>-5.003828099428243e-17</v>
+      </c>
+      <c r="D7">
+        <v>-2.496780669811741e-17</v>
+      </c>
+      <c r="E7">
+        <v>1.946014263915285e-16</v>
+      </c>
+      <c r="F7">
+        <v>6.938893903907228e-17</v>
+      </c>
+      <c r="G7">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.46110165414697341</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.360511937318644</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.17838640853438251</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.775557561562891E-17</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.1093237969000211E-17</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1.6651203358483051</v>
+      <c r="C8">
+        <v>0.375719093616723</v>
+      </c>
+      <c r="D8">
+        <v>0.3198859252253681</v>
+      </c>
+      <c r="E8">
+        <v>0.2053835882104842</v>
+      </c>
+      <c r="F8">
+        <v>0.09901139294742453</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.243234107785582</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/债券基金收益率分解.xlsx
+++ b/data/债券基金收益率分解.xlsx
@@ -477,22 +477,22 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>0.3630381216970752</v>
+        <v>0.6124218786126895</v>
       </c>
       <c r="D2">
-        <v>0.3250906024588441</v>
+        <v>2.251887912252393e-16</v>
       </c>
       <c r="E2">
-        <v>0.2119233109669215</v>
+        <v>0.3875781213873105</v>
       </c>
       <c r="F2">
-        <v>0.09994796487715929</v>
+        <v>-9.140501940410606e-17</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.639855785884325e-18</v>
       </c>
       <c r="H2">
-        <v>2.279081298896867</v>
+        <v>1.716312850611127</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,22 +503,22 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0.46762160659752</v>
+        <v>0.9175101047908114</v>
       </c>
       <c r="D3">
-        <v>0.3635262646209915</v>
+        <v>0.08248989520918848</v>
       </c>
       <c r="E3">
-        <v>0.1241059943399089</v>
+        <v>-1.434534999469883e-17</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-3.699839913606784e-18</v>
       </c>
       <c r="G3">
-        <v>0.04474613444157977</v>
+        <v>-4.831475931138529e-18</v>
       </c>
       <c r="H3">
-        <v>1.815256385433017</v>
+        <v>0.6659193433495882</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,22 +529,22 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.344936428705476</v>
+        <v>0.660797989253368</v>
       </c>
       <c r="D4">
-        <v>0.3196486151951595</v>
+        <v>0.1293805325422875</v>
       </c>
       <c r="E4">
-        <v>0.2244664978144043</v>
+        <v>0.2098214782043445</v>
       </c>
       <c r="F4">
-        <v>0.1109484582849601</v>
+        <v>2.31239994600424e-19</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-5.834617050571797e-17</v>
       </c>
       <c r="H4">
-        <v>2.375322185710435</v>
+        <v>1.371759880045704</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -555,22 +555,22 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.3320966551502804</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="D5">
-        <v>0.306937908317285</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E5">
-        <v>0.1936706219514911</v>
+        <v>7.047314121155779e-17</v>
       </c>
       <c r="F5">
-        <v>0.09159368235430722</v>
+        <v>4.0969289592796e-17</v>
       </c>
       <c r="G5">
-        <v>0.0757011322266362</v>
+        <v>7.758482983670489e-17</v>
       </c>
       <c r="H5">
-        <v>2.709777783954608</v>
+        <v>2.040899991989136</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -581,22 +581,22 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.3818096331389775</v>
+        <v>-1.721863417996001e-17</v>
       </c>
       <c r="D6">
-        <v>0.3364583785203511</v>
+        <v>0.1958972376346713</v>
       </c>
       <c r="E6">
-        <v>0.2817319883406715</v>
+        <v>0.7939459450923732</v>
       </c>
       <c r="F6">
-        <v>-2.775557561562891e-17</v>
+        <v>-3.967212444951963e-17</v>
       </c>
       <c r="G6">
-        <v>-1.461716286747274e-16</v>
+        <v>0.01015681727295555</v>
       </c>
       <c r="H6">
-        <v>1.990749526972876</v>
+        <v>3.303227859626559</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -607,22 +607,22 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>-5.003828099428243e-17</v>
+        <v>-3.65337555159975e-16</v>
       </c>
       <c r="D7">
-        <v>-2.496780669811741e-17</v>
+        <v>-1.040834085586084e-16</v>
       </c>
       <c r="E7">
-        <v>1.946014263915285e-16</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="F7">
-        <v>6.938893903907228e-17</v>
+        <v>-3.107706254891048e-16</v>
       </c>
       <c r="G7">
-        <v>0.9999999999999999</v>
+        <v>-4.73533929328191e-17</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>3.571399927139283</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -633,22 +633,22 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.375719093616723</v>
+        <v>0.984108387627294</v>
       </c>
       <c r="D8">
-        <v>0.3198859252253681</v>
+        <v>-2.623769257414921e-17</v>
       </c>
       <c r="E8">
-        <v>0.2053835882104842</v>
+        <v>0.01589161237270596</v>
       </c>
       <c r="F8">
-        <v>0.09901139294742453</v>
+        <v>-2.534322578184867e-18</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>9.513874063560301e-18</v>
       </c>
       <c r="H8">
-        <v>2.243234107785582</v>
+        <v>0.5904372679902098</v>
       </c>
     </row>
   </sheetData>
